--- a/biology/Zoologie/Dolophones_conifera/Dolophones_conifera.xlsx
+++ b/biology/Zoologie/Dolophones_conifera/Dolophones_conifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolophones conifera est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolophones conifera est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle vit dans l'ouest de l'Australie, comme plusieurs autres espèces du genre Dolophones[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle vit dans l'ouest de l'Australie, comme plusieurs autres espèces du genre Dolophones.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle mesure 6 mm et la femelle 9 mm[3].
-Elle est connue en anglais sous le nom de wrap-around spider (litt. « araignée enroulante ») pour sa capacité à se camoufler en aplatissant son corps pour s'enrouler autour des branches des arbres[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle mesure 6 mm et la femelle 9 mm.
+Elle est connue en anglais sous le nom de wrap-around spider (litt. « araignée enroulante ») pour sa capacité à se camoufler en aplatissant son corps pour s'enrouler autour des branches des arbres.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été décrite par Eugen von Keyserling en 1886 sous le protonyme Tholia conifera[5]. Elle est déplacée dans le genre Dolophones par Eugène Simon en 1908[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été décrite par Eugen von Keyserling en 1886 sous le protonyme Tholia conifera. Elle est déplacée dans le genre Dolophones par Eugène Simon en 1908.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Keyserling, 1886 : Die Arachniden Australiens. Nürnberg, vol. 2, p. 87-152 (texte intégral).</t>
         </is>
